--- a/Team-Data/2007-08/3-19-2007-08.xlsx
+++ b/Team-Data/2007-08/3-19-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
         <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.426</v>
+        <v>0.433</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J2" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L2" t="n">
         <v>4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P2" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>12.4</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T2" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U2" t="n">
         <v>21.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>7.4</v>
@@ -732,19 +799,19 @@
         <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.8</v>
+        <v>96.5</v>
       </c>
       <c r="AC2" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,16 +823,16 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -798,7 +865,7 @@
         <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -810,13 +877,13 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>19</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>9</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,10 +1115,10 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>6.4</v>
@@ -1060,16 +1127,16 @@
         <v>17.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
@@ -1081,7 +1148,7 @@
         <v>40.7</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1096,7 +1163,7 @@
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1108,7 +1175,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1141,19 +1208,19 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1183,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>20</v>
@@ -1341,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1418,19 +1485,19 @@
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
         <v>0.72</v>
@@ -1445,10 +1512,10 @@
         <v>44.3</v>
       </c>
       <c r="U6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1460,19 +1527,19 @@
         <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1505,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1520,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>25</v>
@@ -1532,13 +1599,13 @@
         <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1663,13 +1730,13 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1687,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1729,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P8" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
         <v>11.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U8" t="n">
         <v>24.3</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>6.9</v>
@@ -1824,19 +1891,19 @@
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,13 +1915,13 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>8</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,16 +1948,16 @@
         <v>14</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,10 +1966,10 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
         <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.721</v>
+        <v>0.731</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J9" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
@@ -1970,19 +2037,19 @@
         <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.376</v>
+        <v>0.378</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R9" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
         <v>29.3</v>
@@ -1991,13 +2058,13 @@
         <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X9" t="n">
         <v>5.4</v>
@@ -2006,19 +2073,19 @@
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2051,10 +2118,10 @@
         <v>6</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2066,7 +2133,7 @@
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2084,13 +2151,13 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="J10" t="n">
         <v>89.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="N10" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O10" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P10" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R10" t="n">
         <v>12.3</v>
@@ -2188,25 +2255,25 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB10" t="n">
         <v>110.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2260,13 +2327,13 @@
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA10" t="n">
         <v>12</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -2304,67 +2371,67 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.676</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J11" t="n">
         <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M11" t="n">
         <v>21</v>
       </c>
       <c r="N11" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
       </c>
       <c r="X11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
@@ -2376,34 +2443,34 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,22 +2488,22 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2445,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2454,10 +2521,10 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>41</v>
       </c>
       <c r="G12" t="n">
-        <v>0.397</v>
+        <v>0.388</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,13 +2571,13 @@
         <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M12" t="n">
         <v>24.3</v>
@@ -2522,19 +2589,19 @@
         <v>18.8</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U12" t="n">
         <v>22.6</v>
@@ -2552,7 +2619,7 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21.7</v>
@@ -2561,13 +2628,13 @@
         <v>103.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2597,13 +2664,13 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2621,10 +2688,10 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX12" t="n">
         <v>11</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>9</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" t="n">
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.313</v>
+        <v>0.318</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
@@ -2698,16 +2765,16 @@
         <v>13.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="R13" t="n">
         <v>9.6</v>
@@ -2728,7 +2795,7 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
@@ -2737,16 +2804,16 @@
         <v>21.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2761,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
@@ -2782,7 +2849,7 @@
         <v>5</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2791,7 +2858,7 @@
         <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>29</v>
@@ -2800,16 +2867,16 @@
         <v>16</v>
       </c>
       <c r="AV13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.239</v>
+        <v>0.242</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,37 +3120,37 @@
         <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
       <c r="U15" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.6</v>
@@ -3092,46 +3159,46 @@
         <v>6.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL15" t="n">
         <v>8</v>
@@ -3140,16 +3207,16 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>21</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3158,7 +3225,7 @@
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>27</v>
@@ -3170,10 +3237,10 @@
         <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="J16" t="n">
         <v>78</v>
       </c>
       <c r="K16" t="n">
-        <v>0.453</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T16" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3277,22 +3344,22 @@
         <v>4.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,13 +3374,13 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3322,16 +3389,16 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
@@ -3361,7 +3428,7 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3474,19 +3541,19 @@
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3507,10 +3574,10 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU17" t="n">
         <v>18</v>
@@ -3534,7 +3601,7 @@
         <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>0.254</v>
+        <v>0.242</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
         <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L18" t="n">
         <v>5.3</v>
       </c>
       <c r="M18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="N18" t="n">
         <v>0.341</v>
       </c>
       <c r="O18" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
         <v>19.7</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.7</v>
@@ -3644,19 +3711,19 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.8</v>
+        <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>10</v>
@@ -3704,16 +3771,16 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>39</v>
       </c>
       <c r="G19" t="n">
-        <v>0.426</v>
+        <v>0.418</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="J19" t="n">
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
         <v>16.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.345</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
         <v>20.1</v>
@@ -3799,22 +3866,22 @@
         <v>27.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.727</v>
       </c>
       <c r="R19" t="n">
         <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -3826,49 +3893,49 @@
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
         <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3883,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>12</v>
@@ -3892,16 +3959,16 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3913,7 +3980,7 @@
         <v>27</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,49 +4027,49 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.463</v>
       </c>
       <c r="L20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N20" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T20" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
         <v>12.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y20" t="n">
         <v>4.2</v>
@@ -4011,25 +4078,25 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4065,25 +4132,25 @@
         <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT20" t="n">
         <v>9</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,16 +4284,16 @@
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="n">
         <v>16</v>
@@ -4256,7 +4323,7 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>27</v>
@@ -4268,7 +4335,7 @@
         <v>24</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
         <v>45</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.643</v>
+        <v>0.652</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
         <v>78.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M22" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.383</v>
@@ -4345,13 +4412,13 @@
         <v>28.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
         <v>42.1</v>
@@ -4366,19 +4433,19 @@
         <v>6.1</v>
       </c>
       <c r="X22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y22" t="n">
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
         <v>23.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>105</v>
       </c>
       <c r="AC22" t="n">
         <v>4.9</v>
@@ -4387,19 +4454,19 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4447,7 +4514,7 @@
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -4488,31 +4555,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" t="n">
         <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
         <v>11.1</v>
@@ -4524,10 +4591,10 @@
         <v>18.4</v>
       </c>
       <c r="P23" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.71</v>
       </c>
       <c r="R23" t="n">
         <v>13.1</v>
@@ -4542,7 +4609,7 @@
         <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>8.5</v>
@@ -4557,16 +4624,16 @@
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="AC23" t="n">
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
@@ -4581,13 +4648,13 @@
         <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4605,7 +4672,7 @@
         <v>11</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>2</v>
@@ -4626,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
@@ -4638,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.676</v>
+        <v>0.672</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,28 +4755,28 @@
         <v>41.5</v>
       </c>
       <c r="J24" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="L24" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.391</v>
+        <v>0.387</v>
       </c>
       <c r="O24" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P24" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
@@ -4724,7 +4791,7 @@
         <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="W24" t="n">
         <v>6.7</v>
@@ -4739,25 +4806,25 @@
         <v>19.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
         <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>20</v>
@@ -4778,10 +4845,10 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4814,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4951,7 +5018,7 @@
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>2</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>9</v>
@@ -5309,13 +5376,13 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>7</v>
@@ -5357,13 +5424,13 @@
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ27" t="n">
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
-        <v>0.235</v>
+        <v>0.239</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,7 +5483,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.445</v>
@@ -5425,10 +5492,10 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="O28" t="n">
         <v>17.6</v>
@@ -5437,25 +5504,25 @@
         <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V28" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5476,10 +5543,10 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
         <v>29</v>
@@ -5488,13 +5555,13 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5509,7 +5576,7 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
@@ -5527,13 +5594,13 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5580,61 +5647,61 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="n">
         <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.515</v>
+        <v>0.507</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>7.3</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.405</v>
+        <v>0.404</v>
       </c>
       <c r="O29" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T29" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>23.3</v>
       </c>
       <c r="V29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
@@ -5646,31 +5713,31 @@
         <v>4.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
         <v>100.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5700,10 +5767,10 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5724,7 +5791,7 @@
         <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5733,7 +5800,7 @@
         <v>11</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>6.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
@@ -5977,13 +6044,13 @@
         <v>0.343</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P31" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R31" t="n">
         <v>12.4</v>
@@ -5992,37 +6059,37 @@
         <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U31" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W31" t="n">
         <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y31" t="n">
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA31" t="n">
         <v>20.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>4</v>
@@ -6067,13 +6134,13 @@
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
       </c>
       <c r="AU31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
         <v>8</v>
@@ -6085,7 +6152,7 @@
         <v>12</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-19-2007-08</t>
+          <t>2008-03-19</t>
         </is>
       </c>
     </row>
